--- a/workflows.xlsx
+++ b/workflows.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dutch/Projects/jpmc/camunda/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A267DE77-5C4D-2149-B7C6-3A0ACF2F5AB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5192766C-54AF-8E47-B7FC-827032D1F1BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="2060" windowWidth="27640" windowHeight="16580" xr2:uid="{2042AFDF-993B-7049-9261-734DD6A6AF0D}"/>
+    <workbookView xWindow="380" yWindow="840" windowWidth="28420" windowHeight="17800" activeTab="1" xr2:uid="{2042AFDF-993B-7049-9261-734DD6A6AF0D}"/>
   </bookViews>
   <sheets>
     <sheet name="approval" sheetId="1" r:id="rId1"/>
     <sheet name="rsa" sheetId="2" r:id="rId2"/>
-    <sheet name="indicator" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="56">
   <si>
     <t>Seq</t>
   </si>
@@ -50,9 +49,6 @@
   </si>
   <si>
     <t>Desc</t>
-  </si>
-  <si>
-    <t>Condition</t>
   </si>
   <si>
     <t>System</t>
@@ -165,7 +161,59 @@
     <t>Next</t>
   </si>
   <si>
-    <t>camunda:formKey=x/y/z/abc.html,</t>
+    <t>url=http://host.docker.internal:8081, 
+method=POST, 
+payload={"name": "rsa"}</t>
+  </si>
+  <si>
+    <t>Human Task - perform rsa</t>
+  </si>
+  <si>
+    <t>It is just for human to read in excel, human task to perform rsa review</t>
+  </si>
+  <si>
+    <t>camunda:formKey=x/y/z/rsa.html,</t>
+  </si>
+  <si>
+    <t>camunda:formKey=x/y/z/approval.html,</t>
+  </si>
+  <si>
+    <t>callActivity</t>
+  </si>
+  <si>
+    <t>Call approval workflow</t>
+  </si>
+  <si>
+    <t>call_approval_workflow</t>
+  </si>
+  <si>
+    <t>call approval workflow to seek approval</t>
+  </si>
+  <si>
+    <t>calledElement=approval_process,</t>
+  </si>
+  <si>
+    <t>in.rsa=rsa,
+out.approval=approval,
+out.rejection_reason=rejection_reason</t>
+  </si>
+  <si>
+    <t>EndEvent_1</t>
+  </si>
+  <si>
+    <t>boundaryEvent</t>
+  </si>
+  <si>
+    <t>catch_rejection</t>
+  </si>
+  <si>
+    <t>attachedToRef=call_approval_workflow,</t>
+  </si>
+  <si>
+    <t>Catch approval rejection so user task above can be reworked</t>
+  </si>
+  <si>
+    <t>Error Boundary</t>
   </si>
 </sst>
 </file>
@@ -196,7 +244,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -212,12 +260,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -261,65 +303,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -635,319 +649,298 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBAED434-9A22-1F42-8A36-9C28E0D7E915}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="10" max="10" width="20.83203125" style="20" customWidth="1"/>
+    <col min="1" max="7" width="15.33203125" style="6"/>
+    <col min="8" max="8" width="15.33203125" style="6" customWidth="1"/>
+    <col min="9" max="9" width="20.83203125" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="15.33203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="9" t="s">
+      <c r="F1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="9">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="9" t="s">
+      <c r="I3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="85" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="2">
         <v>3</v>
       </c>
-      <c r="H1" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J1" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" s="9" t="s">
+      <c r="I4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="J4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="85" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="2">
+        <v>4</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="85" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="1">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="5">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="12">
-        <v>2</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="85" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="4">
-        <v>2</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="13">
-        <v>3</v>
-      </c>
-      <c r="J4" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="K4" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="4">
-        <v>3</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="13">
-        <v>4</v>
-      </c>
-      <c r="J5" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="K5" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="85" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="4">
-        <v>4</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="J6" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="4">
-        <v>5</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="J7" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="K7" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="4">
-        <v>6</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="J8" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="K8" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -957,173 +950,317 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C835871-7B75-C943-86BC-9B6EB51A65BE}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD7F54D4-D8BB-BF48-A84C-7323E76253A9}">
-  <dimension ref="A1:L8"/>
-  <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.83203125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="8.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="31" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="2" width="10.83203125" style="6"/>
+    <col min="3" max="3" width="13.1640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="6"/>
+    <col min="5" max="5" width="20.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="6"/>
+    <col min="7" max="7" width="16.6640625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="6"/>
+    <col min="9" max="9" width="22.6640625" style="6" customWidth="1"/>
+    <col min="10" max="10" width="21" style="6" customWidth="1"/>
+    <col min="11" max="11" width="17.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="9"/>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="5"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="5"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="5"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
+    <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="9">
+        <v>2</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="2">
+        <v>3</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="85" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="2">
+        <v>4</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="2">
+        <v>6</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="2">
+        <v>3</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="1">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/workflows.xlsx
+++ b/workflows.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dutch/Projects/jpmc/camunda/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5192766C-54AF-8E47-B7FC-827032D1F1BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{906C314F-8718-804A-A1A2-AD950D9AB9B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="840" windowWidth="28420" windowHeight="17800" activeTab="1" xr2:uid="{2042AFDF-993B-7049-9261-734DD6A6AF0D}"/>
+    <workbookView xWindow="380" yWindow="840" windowWidth="28420" windowHeight="17800" activeTab="2" xr2:uid="{2042AFDF-993B-7049-9261-734DD6A6AF0D}"/>
   </bookViews>
   <sheets>
     <sheet name="approval" sheetId="1" r:id="rId1"/>
     <sheet name="rsa" sheetId="2" r:id="rId2"/>
+    <sheet name="main" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="66">
   <si>
     <t>Seq</t>
   </si>
@@ -214,6 +215,39 @@
   </si>
   <si>
     <t>Error Boundary</t>
+  </si>
+  <si>
+    <t>REST Service Task</t>
+  </si>
+  <si>
+    <t>url=http://host.docker.internal:8081, 
+method=POST, 
+payload={"name": "main"}</t>
+  </si>
+  <si>
+    <t>Human Task - review indicator</t>
+  </si>
+  <si>
+    <t>It is just for human to read in excel, human task to perform indicator review</t>
+  </si>
+  <si>
+    <t>camunda:formKey=x/y/z/main.html,</t>
+  </si>
+  <si>
+    <t>call_rsa_workflow</t>
+  </si>
+  <si>
+    <t>Call rsa workflow</t>
+  </si>
+  <si>
+    <t>call rsa workflow to perform rsa</t>
+  </si>
+  <si>
+    <t>calledElement=rsa_process,</t>
+  </si>
+  <si>
+    <t>in.xxx=xxx,
+out.yyy=yyy</t>
   </si>
 </sst>
 </file>
@@ -652,7 +686,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -950,10 +984,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C835871-7B75-C943-86BC-9B6EB51A65BE}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1249,18 +1283,230 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38231E88-EF03-1544-9494-0612EAE66D28}">
+  <dimension ref="A1:K6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="7">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="9">
+        <v>2</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="153" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="2">
+        <v>3</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="136" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" s="2">
+        <v>4</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" s="2">
+        <v>5</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/workflows.xlsx
+++ b/workflows.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dutch/Projects/jpmc/camunda/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{906C314F-8718-804A-A1A2-AD950D9AB9B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB04290-8886-994F-A901-E3EC8A29F531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="840" windowWidth="28420" windowHeight="17800" activeTab="2" xr2:uid="{2042AFDF-993B-7049-9261-734DD6A6AF0D}"/>
+    <workbookView xWindow="380" yWindow="840" windowWidth="28420" windowHeight="17800" xr2:uid="{2042AFDF-993B-7049-9261-734DD6A6AF0D}"/>
   </bookViews>
   <sheets>
     <sheet name="approval" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="67">
   <si>
     <t>Seq</t>
   </si>
@@ -145,115 +145,129 @@
     <t>Meta</t>
   </si>
   <si>
-    <t>url=http://host.docker.internal:8081, 
-method=POST, 
-payload={"name": "approval"}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${approved == true}: 5,
+    <t>Next</t>
+  </si>
+  <si>
+    <t>Human Task - perform rsa</t>
+  </si>
+  <si>
+    <t>It is just for human to read in excel, human task to perform rsa review</t>
+  </si>
+  <si>
+    <t>callActivity</t>
+  </si>
+  <si>
+    <t>Call approval workflow</t>
+  </si>
+  <si>
+    <t>call_approval_workflow</t>
+  </si>
+  <si>
+    <t>call approval workflow to seek approval</t>
+  </si>
+  <si>
+    <t>EndEvent_1</t>
+  </si>
+  <si>
+    <t>boundaryEvent</t>
+  </si>
+  <si>
+    <t>catch_rejection</t>
+  </si>
+  <si>
+    <t>Catch approval rejection so user task above can be reworked</t>
+  </si>
+  <si>
+    <t>Error Boundary</t>
+  </si>
+  <si>
+    <t>REST Service Task</t>
+  </si>
+  <si>
+    <t>Human Task - review indicator</t>
+  </si>
+  <si>
+    <t>It is just for human to read in excel, human task to perform indicator review</t>
+  </si>
+  <si>
+    <t>call_rsa_workflow</t>
+  </si>
+  <si>
+    <t>Call rsa workflow</t>
+  </si>
+  <si>
+    <t>call rsa workflow to perform rsa</t>
+  </si>
+  <si>
+    <t>url: http://host.docker.internal:8081
+method: POST 
+payload: 
+  name: approval
+  x: 2</t>
+  </si>
+  <si>
+    <t>"camunda:formKey": x/y/z/approval.html</t>
+  </si>
+  <si>
+    <t>url: http://host.docker.internal:8081
+method: POST 
+payload: 
+  name: rsa
+  x: 2</t>
+  </si>
+  <si>
+    <t>url: http://host.docker.internal:8081
+method: POST 
+payload: 
+  name: rsa
+  z: 3</t>
+  </si>
+  <si>
+    <t>RSA: 1
+ACK: 2</t>
+  </si>
+  <si>
+    <t>"camunda:formKey": x/y/z/rsa.html</t>
+  </si>
+  <si>
+    <t>"camunda:formKey": x/y/z/main.html</t>
+  </si>
+  <si>
+    <t>x: 1
+y: 2
+z: 3</t>
+  </si>
+  <si>
+    <t>calledElement: rsa_process</t>
+  </si>
+  <si>
+    <t>in.xxx: xxx
+out.yyy: yyy</t>
+  </si>
+  <si>
+    <t>attachedToRef: call_approval_workflow</t>
+  </si>
+  <si>
+    <t>calledElement: approval_process</t>
+  </si>
+  <si>
+    <t>in.rsa: rsa
+out.approval: approval
+out.rejection_reason: rejection_reason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${approved == true}: 5
 ${approved == false}: 6
 </t>
-  </si>
-  <si>
-    <t>x=1,
-y=2</t>
-  </si>
-  <si>
-    <t>Next</t>
-  </si>
-  <si>
-    <t>url=http://host.docker.internal:8081, 
-method=POST, 
-payload={"name": "rsa"}</t>
-  </si>
-  <si>
-    <t>Human Task - perform rsa</t>
-  </si>
-  <si>
-    <t>It is just for human to read in excel, human task to perform rsa review</t>
-  </si>
-  <si>
-    <t>camunda:formKey=x/y/z/rsa.html,</t>
-  </si>
-  <si>
-    <t>camunda:formKey=x/y/z/approval.html,</t>
-  </si>
-  <si>
-    <t>callActivity</t>
-  </si>
-  <si>
-    <t>Call approval workflow</t>
-  </si>
-  <si>
-    <t>call_approval_workflow</t>
-  </si>
-  <si>
-    <t>call approval workflow to seek approval</t>
-  </si>
-  <si>
-    <t>calledElement=approval_process,</t>
-  </si>
-  <si>
-    <t>in.rsa=rsa,
-out.approval=approval,
-out.rejection_reason=rejection_reason</t>
-  </si>
-  <si>
-    <t>EndEvent_1</t>
-  </si>
-  <si>
-    <t>boundaryEvent</t>
-  </si>
-  <si>
-    <t>catch_rejection</t>
-  </si>
-  <si>
-    <t>attachedToRef=call_approval_workflow,</t>
-  </si>
-  <si>
-    <t>Catch approval rejection so user task above can be reworked</t>
-  </si>
-  <si>
-    <t>Error Boundary</t>
-  </si>
-  <si>
-    <t>REST Service Task</t>
-  </si>
-  <si>
-    <t>url=http://host.docker.internal:8081, 
-method=POST, 
-payload={"name": "main"}</t>
-  </si>
-  <si>
-    <t>Human Task - review indicator</t>
-  </si>
-  <si>
-    <t>It is just for human to read in excel, human task to perform indicator review</t>
-  </si>
-  <si>
-    <t>camunda:formKey=x/y/z/main.html,</t>
-  </si>
-  <si>
-    <t>call_rsa_workflow</t>
-  </si>
-  <si>
-    <t>Call rsa workflow</t>
-  </si>
-  <si>
-    <t>call rsa workflow to perform rsa</t>
-  </si>
-  <si>
-    <t>calledElement=rsa_process,</t>
-  </si>
-  <si>
-    <t>in.xxx=xxx,
-out.yyy=yyy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -337,7 +351,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -368,6 +382,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -685,14 +702,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBAED434-9A22-1F42-8A36-9C28E0D7E915}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="7" width="15.33203125" style="6"/>
-    <col min="8" max="8" width="15.33203125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="22.83203125" style="6" customWidth="1"/>
     <col min="9" max="9" width="20.83203125" style="6" customWidth="1"/>
     <col min="10" max="16384" width="15.33203125" style="6"/>
   </cols>
@@ -720,7 +737,7 @@
         <v>3</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>33</v>
@@ -802,7 +819,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="85" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="119" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
@@ -828,7 +845,7 @@
         <v>3</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>6</v>
@@ -863,10 +880,10 @@
         <v>4</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>6</v>
@@ -895,7 +912,7 @@
         <v>17</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>6</v>
@@ -984,10 +1001,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C835871-7B75-C943-86BC-9B6EB51A65BE}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1000,7 +1017,7 @@
     <col min="7" max="7" width="16.6640625" style="6" customWidth="1"/>
     <col min="8" max="8" width="10.83203125" style="6"/>
     <col min="9" max="9" width="22.6640625" style="6" customWidth="1"/>
-    <col min="10" max="10" width="21" style="6" customWidth="1"/>
+    <col min="10" max="10" width="32.1640625" style="6" customWidth="1"/>
     <col min="11" max="11" width="17.1640625" style="6" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="10.83203125" style="6"/>
   </cols>
@@ -1028,7 +1045,7 @@
         <v>3</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>33</v>
@@ -1110,7 +1127,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="119" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
@@ -1136,7 +1153,7 @@
         <v>3</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>6</v>
@@ -1162,16 +1179,16 @@
         <v>12</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H5" s="2">
         <v>4</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>6</v>
@@ -1188,28 +1205,28 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H6" s="2">
         <v>6</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>6</v>
@@ -1223,27 +1240,29 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>4</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H7" s="2">
         <v>3</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J7" s="3"/>
+        <v>63</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="K7" s="7" t="s">
         <v>26</v>
       </c>
@@ -1262,7 +1281,7 @@
         <v>4</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>7</v>
@@ -1282,6 +1301,9 @@
       <c r="K8" s="7" t="s">
         <v>6</v>
       </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C15" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1292,8 +1314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38231E88-EF03-1544-9494-0612EAE66D28}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1321,7 +1343,7 @@
         <v>3</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>33</v>
@@ -1368,7 +1390,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="153" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="119" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
@@ -1385,7 +1407,7 @@
         <v>10</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>8</v>
@@ -1394,7 +1416,7 @@
         <v>3</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>6</v>
@@ -1403,7 +1425,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="136" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="85" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
@@ -1420,19 +1442,19 @@
         <v>12</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="G4" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="2">
+        <v>4</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="H4" s="2">
-        <v>4</v>
-      </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>6</v>
@@ -1446,28 +1468,28 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="H5" s="2">
         <v>5</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>6</v>
@@ -1487,7 +1509,7 @@
         <v>4</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>7</v>

--- a/workflows.xlsx
+++ b/workflows.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dutch/Projects/jpmc/camunda/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB04290-8886-994F-A901-E3EC8A29F531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC473F07-1A2E-C14A-9751-C34112E49D80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="840" windowWidth="28420" windowHeight="17800" xr2:uid="{2042AFDF-993B-7049-9261-734DD6A6AF0D}"/>
+    <workbookView xWindow="380" yWindow="840" windowWidth="28420" windowHeight="17800" activeTab="2" xr2:uid="{2042AFDF-993B-7049-9261-734DD6A6AF0D}"/>
   </bookViews>
   <sheets>
     <sheet name="approval" sheetId="1" r:id="rId1"/>
@@ -702,8 +702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBAED434-9A22-1F42-8A36-9C28E0D7E915}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1004,7 +1004,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1314,8 +1314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38231E88-EF03-1544-9494-0612EAE66D28}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/workflows.xlsx
+++ b/workflows.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dutch/Projects/jpmc/camunda/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC473F07-1A2E-C14A-9751-C34112E49D80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844D3127-27B5-AE4A-9293-DD4280EE1C26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="840" windowWidth="28420" windowHeight="17800" activeTab="2" xr2:uid="{2042AFDF-993B-7049-9261-734DD6A6AF0D}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="28800" windowHeight="17960" activeTab="2" xr2:uid="{2042AFDF-993B-7049-9261-734DD6A6AF0D}"/>
   </bookViews>
   <sheets>
     <sheet name="approval" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="60">
   <si>
     <t>Seq</t>
   </si>
@@ -58,78 +58,12 @@
     <t>Start</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>End</t>
   </si>
   <si>
-    <t>Calling API as test</t>
-  </si>
-  <si>
-    <t>StartEvent_1</t>
-  </si>
-  <si>
-    <t>Task_1</t>
-  </si>
-  <si>
-    <t>test post api call</t>
-  </si>
-  <si>
-    <t>Task_2</t>
-  </si>
-  <si>
-    <t>Human Task - approval or reject</t>
-  </si>
-  <si>
-    <t>It is just for human to read in excel, human task to approval or reject</t>
-  </si>
-  <si>
     <t>CreditOfficer</t>
   </si>
   <si>
-    <t>decision</t>
-  </si>
-  <si>
-    <t>decision on approval or rejection</t>
-  </si>
-  <si>
-    <t>endEvent</t>
-  </si>
-  <si>
-    <t>startEvent</t>
-  </si>
-  <si>
-    <t>serviceTask</t>
-  </si>
-  <si>
-    <t>userTask</t>
-  </si>
-  <si>
-    <t>exclusiveGateway</t>
-  </si>
-  <si>
-    <t>end-approve</t>
-  </si>
-  <si>
-    <t>end-reject</t>
-  </si>
-  <si>
-    <t>error</t>
-  </si>
-  <si>
-    <t>REJECTION_ERROR</t>
-  </si>
-  <si>
-    <t>Approval Rejected</t>
-  </si>
-  <si>
-    <t>process</t>
-  </si>
-  <si>
-    <t>ErrorRef</t>
-  </si>
-  <si>
     <t>TopElm</t>
   </si>
   <si>
@@ -146,57 +80,6 @@
   </si>
   <si>
     <t>Next</t>
-  </si>
-  <si>
-    <t>Human Task - perform rsa</t>
-  </si>
-  <si>
-    <t>It is just for human to read in excel, human task to perform rsa review</t>
-  </si>
-  <si>
-    <t>callActivity</t>
-  </si>
-  <si>
-    <t>Call approval workflow</t>
-  </si>
-  <si>
-    <t>call_approval_workflow</t>
-  </si>
-  <si>
-    <t>call approval workflow to seek approval</t>
-  </si>
-  <si>
-    <t>EndEvent_1</t>
-  </si>
-  <si>
-    <t>boundaryEvent</t>
-  </si>
-  <si>
-    <t>catch_rejection</t>
-  </si>
-  <si>
-    <t>Catch approval rejection so user task above can be reworked</t>
-  </si>
-  <si>
-    <t>Error Boundary</t>
-  </si>
-  <si>
-    <t>REST Service Task</t>
-  </si>
-  <si>
-    <t>Human Task - review indicator</t>
-  </si>
-  <si>
-    <t>It is just for human to read in excel, human task to perform indicator review</t>
-  </si>
-  <si>
-    <t>call_rsa_workflow</t>
-  </si>
-  <si>
-    <t>Call rsa workflow</t>
-  </si>
-  <si>
-    <t>call rsa workflow to perform rsa</t>
   </si>
   <si>
     <t>url: http://host.docker.internal:8081
@@ -216,49 +99,145 @@
   x: 2</t>
   </si>
   <si>
+    <t>RSA: 1
+ACK: 2</t>
+  </si>
+  <si>
+    <t>"camunda:formKey": x/y/z/rsa.html</t>
+  </si>
+  <si>
+    <t>"camunda:formKey": x/y/z/main.html</t>
+  </si>
+  <si>
+    <t>x: 1
+y: 2
+z: 3</t>
+  </si>
+  <si>
+    <t>calledElement: rsa_process</t>
+  </si>
+  <si>
+    <t>in.xxx: xxx
+out.yyy: yyy</t>
+  </si>
+  <si>
+    <t>calledElement: approval_process</t>
+  </si>
+  <si>
+    <t>in.rsa: rsa
+out.approval: approval
+out.rejection_reason: rejection_reason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${approved == true}: 5
+${approved == false}: 6
+</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>Process</t>
+  </si>
+  <si>
+    <t>StartEvent</t>
+  </si>
+  <si>
+    <t>ServiceTask</t>
+  </si>
+  <si>
+    <t>UserTask</t>
+  </si>
+  <si>
+    <t>ExclusiveGateway</t>
+  </si>
+  <si>
+    <t>EndEvent</t>
+  </si>
+  <si>
+    <t>RejectionError</t>
+  </si>
+  <si>
+    <t>Task1</t>
+  </si>
+  <si>
+    <t>Task2</t>
+  </si>
+  <si>
+    <t>Decision1</t>
+  </si>
+  <si>
+    <t>EndApproved</t>
+  </si>
+  <si>
+    <t>EndRejected</t>
+  </si>
+  <si>
+    <t>End Approved</t>
+  </si>
+  <si>
+    <t>End Rejected</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Rejection Error</t>
+  </si>
+  <si>
+    <t>Call API As Test</t>
+  </si>
+  <si>
+    <t>Human Approval</t>
+  </si>
+  <si>
+    <t>Check For Approval Or Rejection</t>
+  </si>
+  <si>
     <t>url: http://host.docker.internal:8081
 method: POST 
 payload: 
-  name: rsa
+  name: main
   z: 3</t>
   </si>
   <si>
-    <t>RSA: 1
-ACK: 2</t>
-  </si>
-  <si>
-    <t>"camunda:formKey": x/y/z/rsa.html</t>
-  </si>
-  <si>
-    <t>"camunda:formKey": x/y/z/main.html</t>
-  </si>
-  <si>
-    <t>x: 1
-y: 2
-z: 3</t>
-  </si>
-  <si>
-    <t>calledElement: rsa_process</t>
-  </si>
-  <si>
-    <t>in.xxx: xxx
-out.yyy: yyy</t>
-  </si>
-  <si>
-    <t>attachedToRef: call_approval_workflow</t>
-  </si>
-  <si>
-    <t>calledElement: approval_process</t>
-  </si>
-  <si>
-    <t>in.rsa: rsa
-out.approval: approval
-out.rejection_reason: rejection_reason</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${approved == true}: 5
-${approved == false}: 6
-</t>
+    <t>errorRef: RejectionError</t>
+  </si>
+  <si>
+    <t>CallActivity</t>
+  </si>
+  <si>
+    <t>BoundaryEvent</t>
+  </si>
+  <si>
+    <t>Human RSA</t>
+  </si>
+  <si>
+    <t>Human To Perform RSA</t>
+  </si>
+  <si>
+    <t>CallApprovalWorkflow</t>
+  </si>
+  <si>
+    <t>Call Approval Workflow</t>
+  </si>
+  <si>
+    <t>CatchApprovalRejection</t>
+  </si>
+  <si>
+    <t>Catch Approval Rejection</t>
+  </si>
+  <si>
+    <t>attachedToRef: CallApprovalWorkflow</t>
+  </si>
+  <si>
+    <t>CallRSAWorkflow</t>
+  </si>
+  <si>
+    <t>Call RSA Workflow</t>
+  </si>
+  <si>
+    <t>Human Review Indicator</t>
   </si>
 </sst>
 </file>
@@ -351,7 +330,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -363,9 +342,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -700,23 +676,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBAED434-9A22-1F42-8A36-9C28E0D7E915}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="15.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="7" width="15.33203125" style="6"/>
-    <col min="8" max="8" width="22.83203125" style="6" customWidth="1"/>
-    <col min="9" max="9" width="20.83203125" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="15.33203125" style="6"/>
+    <col min="1" max="8" width="15.5" style="5"/>
+    <col min="9" max="9" width="18.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="15.5" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -728,271 +704,250 @@
         <v>1</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="F2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="7">
-        <v>1</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="8" t="s">
+      <c r="D3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="8">
         <v>2</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="119" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="119" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>8</v>
+        <v>29</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="H4" s="2">
         <v>3</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="85" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="2">
+        <v>4</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="2">
-        <v>4</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="J5" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="85" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="119" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" s="1">
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>17</v>
+        <v>36</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" s="1">
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>4</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>7</v>
+        <v>37</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" s="1">
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>4</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>7</v>
+        <v>38</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>26</v>
-      </c>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D12" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1001,30 +956,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C835871-7B75-C943-86BC-9B6EB51A65BE}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="6"/>
-    <col min="3" max="3" width="13.1640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="6"/>
-    <col min="5" max="5" width="20.83203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="6"/>
-    <col min="7" max="7" width="16.6640625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" style="6"/>
-    <col min="9" max="9" width="22.6640625" style="6" customWidth="1"/>
-    <col min="10" max="10" width="32.1640625" style="6" customWidth="1"/>
-    <col min="11" max="11" width="17.1640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.83203125" style="6"/>
+    <col min="1" max="1" width="7.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -1036,274 +991,250 @@
         <v>1</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="F2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="7">
-        <v>1</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="8" t="s">
+      <c r="D3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="8">
         <v>2</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="119" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="85" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>8</v>
+        <v>29</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="H4" s="2">
         <v>3</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="85" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>15</v>
+        <v>30</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>7</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="H5" s="2">
         <v>4</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" s="1">
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>41</v>
+        <v>52</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>53</v>
       </c>
       <c r="H6" s="2">
         <v>6</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" s="1">
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>4</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>45</v>
+        <v>54</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="H7" s="2">
         <v>3</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" s="1">
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>4</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>7</v>
+        <v>32</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C15" s="11"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C14" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1312,17 +1243,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38231E88-EF03-1544-9494-0612EAE66D28}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" customWidth="1"/>
+    <col min="7" max="7" width="18.5" customWidth="1"/>
+    <col min="8" max="8" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
+    <col min="10" max="10" width="21.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -1334,200 +1274,182 @@
         <v>1</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="7">
-        <v>1</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="8" t="s">
+      <c r="D2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="8">
         <v>2</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="119" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="119" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>8</v>
+        <v>29</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="H3" s="2">
         <v>3</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="85" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>15</v>
+        <v>30</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>7</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" s="2">
+        <v>4</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="H4" s="2">
-        <v>4</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="1">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>52</v>
+        <v>57</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="H5" s="2">
         <v>5</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>7</v>
+        <v>32</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/workflows.xlsx
+++ b/workflows.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dutch/Projects/jpmc/camunda/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844D3127-27B5-AE4A-9293-DD4280EE1C26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49BF7A4D-FEEC-8449-B126-76E3FDB37342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="28800" windowHeight="17960" activeTab="2" xr2:uid="{2042AFDF-993B-7049-9261-734DD6A6AF0D}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="28800" windowHeight="17960" activeTab="1" xr2:uid="{2042AFDF-993B-7049-9261-734DD6A6AF0D}"/>
   </bookViews>
   <sheets>
     <sheet name="approval" sheetId="1" r:id="rId1"/>
@@ -679,7 +679,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -958,23 +958,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C835871-7B75-C943-86BC-9B6EB51A65BE}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:G4"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.5" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="21.1640625" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.1640625" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="32.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="5"/>
+    <col min="11" max="16384" width="20.5" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -1009,7 +1008,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>26</v>
       </c>
@@ -1105,7 +1104,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
@@ -1245,7 +1244,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38231E88-EF03-1544-9494-0612EAE66D28}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
